--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2771623A-4DFC-4A81-8CC0-23703DD6036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE02475-6143-447F-973C-BB1785C588B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
@@ -45,15 +45,6 @@
     <t>&gt; Cucumber with Java Selenium.                                             &gt; Rest Assured with Java.</t>
   </si>
   <si>
-    <t>&gt; Database Testing.                                             &gt; Framework Dockerisation.             &gt; Java Complete Revision</t>
-  </si>
-  <si>
-    <t>&gt; DevOps.                                             &gt; Selenium, REST API and JAVA Interview preparation.                  &gt; Java Complete Revision</t>
-  </si>
-  <si>
-    <t>&gt; Azure Fundamentals.                                             &gt; ETL testing.                                   &gt; Communication Skills 11 skills</t>
-  </si>
-  <si>
     <t>&gt; Reading News understanding news.                                                  &gt; Learn Negotiation skills</t>
   </si>
   <si>
@@ -187,6 +178,15 @@
   </si>
   <si>
     <t>https://rahulshettyacademy.com/blog/index.php/2022/01/18/software-testing-interview-questions/</t>
+  </si>
+  <si>
+    <t>&gt; Framework Dockerisation.             &gt; Selenium Complete Framework Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Database Testing.                                            &gt; Rest Assured.                                          </t>
+  </si>
+  <si>
+    <t>&gt; ETL Testing.                                            &gt; Performance Testing                                  &gt; Communication Skills 11 skills</t>
   </si>
 </sst>
 </file>
@@ -307,32 +307,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
   <dimension ref="C5:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,203 +681,203 @@
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="H6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="4">
         <v>45597</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="4">
+        <v>45658</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="H8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="4">
+        <v>45689</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="H9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="4">
+        <v>45717</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="H10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="4">
-        <v>45627</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="I10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="4">
+        <v>45748</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="H8" s="10" t="s">
+      <c r="E11" s="14"/>
+      <c r="H11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="C9" s="4">
-        <v>45658</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="H9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="4">
-        <v>45689</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="H10" s="10" t="s">
+      <c r="L11" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="4">
-        <v>45717</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="H11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="H12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="13" t="s">
+    </row>
+    <row r="16" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="13" t="s">
+      <c r="L16" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="K17" s="13" t="s">
+      <c r="L17" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -903,8 +903,10 @@
     <hyperlink ref="L17" r:id="rId15" xr:uid="{6E207B70-01EB-46C8-86D5-38C4641ACDAD}"/>
     <hyperlink ref="I15" r:id="rId16" xr:uid="{7D74F3BB-82EC-431D-9DA0-B70917D299D9}"/>
     <hyperlink ref="I16" r:id="rId17" xr:uid="{1471BC00-7D49-4777-9171-DFBDA2992B82}"/>
+    <hyperlink ref="I9" r:id="rId18" xr:uid="{27E4409B-91E1-4266-84CF-09E5EF42ED00}"/>
+    <hyperlink ref="L11" r:id="rId19" xr:uid="{B64768DC-3EF7-49B4-BEEA-6087DEB1A1C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE02475-6143-447F-973C-BB1785C588B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2575E9-ABFF-4F05-90C7-680BB3560D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
+    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7270" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Switching" sheetId="1" r:id="rId1"/>
@@ -180,13 +180,13 @@
     <t>https://rahulshettyacademy.com/blog/index.php/2022/01/18/software-testing-interview-questions/</t>
   </si>
   <si>
-    <t>&gt; Framework Dockerisation.             &gt; Selenium Complete Framework Development</t>
-  </si>
-  <si>
     <t xml:space="preserve">&gt; Database Testing.                                            &gt; Rest Assured.                                          </t>
   </si>
   <si>
     <t>&gt; ETL Testing.                                            &gt; Performance Testing                                  &gt; Communication Skills 11 skills</t>
+  </si>
+  <si>
+    <t>&gt; Jenkins Complete run all frameworks in slave machine with emaillable report.                       &gt; Selenium Complete Framework Development</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
   <dimension ref="C5:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -718,12 +718,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C8" s="4">
         <v>45658</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" s="14"/>
       <c r="H8" s="9" t="s">
@@ -744,7 +744,7 @@
         <v>45689</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="14"/>
       <c r="H9" s="9" t="s">
@@ -765,7 +765,7 @@
         <v>45717</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="14"/>
       <c r="H10" s="9" t="s">

--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2575E9-ABFF-4F05-90C7-680BB3560D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788E063-7C39-4C2F-990A-784C8AA46BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7270" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Switching" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>SUBJECTS</t>
   </si>
@@ -187,6 +187,30 @@
   </si>
   <si>
     <t>&gt; Jenkins Complete run all frameworks in slave machine with emaillable report.                       &gt; Selenium Complete Framework Development</t>
+  </si>
+  <si>
+    <t>Java RegularExpressions</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ju8EybDDjBk&amp;list=PLd3UqWTnYXOkvuQb1D4wz2BY0XnKRpEiU</t>
+  </si>
+  <si>
+    <t>Java Streams</t>
+  </si>
+  <si>
+    <t>Watch Rahul Shetty Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparable and Comparator </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZA2oNhtNk3w</t>
+  </si>
+  <si>
+    <t>Singleton class</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SniLNfFejiU</t>
   </si>
 </sst>
 </file>
@@ -290,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -333,6 +357,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
   <dimension ref="C5:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,7 +688,8 @@
     <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.08984375" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.81640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="1"/>
@@ -726,6 +754,12 @@
         <v>50</v>
       </c>
       <c r="E8" s="14"/>
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="H8" s="9" t="s">
         <v>9</v>
       </c>
@@ -747,6 +781,12 @@
         <v>48</v>
       </c>
       <c r="E9" s="14"/>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="H9" s="9" t="s">
         <v>10</v>
       </c>
@@ -768,6 +808,12 @@
         <v>49</v>
       </c>
       <c r="E10" s="14"/>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>11</v>
       </c>
@@ -789,6 +835,12 @@
         <v>3</v>
       </c>
       <c r="E11" s="14"/>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="H11" s="9" t="s">
         <v>12</v>
       </c>
@@ -905,8 +957,10 @@
     <hyperlink ref="I16" r:id="rId17" xr:uid="{1471BC00-7D49-4777-9171-DFBDA2992B82}"/>
     <hyperlink ref="I9" r:id="rId18" xr:uid="{27E4409B-91E1-4266-84CF-09E5EF42ED00}"/>
     <hyperlink ref="L11" r:id="rId19" xr:uid="{B64768DC-3EF7-49B4-BEEA-6087DEB1A1C8}"/>
+    <hyperlink ref="I10" r:id="rId20" xr:uid="{F1B52C8A-8CA7-4E55-AE9C-B19A0A17AE62}"/>
+    <hyperlink ref="I11" r:id="rId21" xr:uid="{0243746E-78E6-4C63-8A6A-935AFF113CA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788E063-7C39-4C2F-990A-784C8AA46BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464A46EF-EA5B-4BE1-ADA3-6DB7FE65C5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>SUBJECTS</t>
   </si>
@@ -211,13 +211,79 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=SniLNfFejiU</t>
+  </si>
+  <si>
+    <t>Stale Element Exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Element not found
+&gt; This error occurs when the element is not present in the HTML code. This can be caused by wrong selectors, missing waits, or navigation problems. 
+2. Element not visible
+&gt; This error occurs when the element is present in the HTML code but is hidden. This can happen if the element is covered by another element, disabled, or outside the viewport. </t>
+  </si>
+  <si>
+    <t>Framework Tricky Questions Rahul Shetty</t>
+  </si>
+  <si>
+    <t>Udemy Selenium Course</t>
+  </si>
+  <si>
+    <t>Capgemini Interview Questions - Bengaluru location</t>
+  </si>
+  <si>
+    <t>1. I want to ensure a new element got added to drop-down how to do that.</t>
+  </si>
+  <si>
+    <t>2. Have you worked on Jenkins Implementation in frameworks like Selenium, restAssured</t>
+  </si>
+  <si>
+    <t>3. Write regular expression for email input</t>
+  </si>
+  <si>
+    <t>4. Write code for web-table automation, I want to fetch 2nd row and 3rd coloumn cell value.</t>
+  </si>
+  <si>
+    <t>5. When you will get stale element Exception</t>
+  </si>
+  <si>
+    <t>Capgemini Interview Questions - Chennai location</t>
+  </si>
+  <si>
+    <t>1. Difference between Element Not Found and Element not visible Exception</t>
+  </si>
+  <si>
+    <t>2. Difference between oAuth1 and oAuth2</t>
+  </si>
+  <si>
+    <t>3. why 402 comes</t>
+  </si>
+  <si>
+    <t>4. What is parameterization in selenium and how it is achived</t>
+  </si>
+  <si>
+    <t>5. Explain how you implemented OOPs concepts in your framework</t>
+  </si>
+  <si>
+    <t>6. Explain Framework Structure</t>
+  </si>
+  <si>
+    <t>7. How to implement multithreading in Framework</t>
+  </si>
+  <si>
+    <t>8. What is the limit of priority in TestNG and what will happen if we giv -ve priority to test case.</t>
+  </si>
+  <si>
+    <t>9. Fibonacci series and patteren program for the below patteren                                                                                            1                                                                            12                                                                  123                                                                1234                                                       12345</t>
+  </si>
+  <si>
+    <t>10. Selenium 4 features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +313,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +359,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -314,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -325,9 +405,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -355,10 +432,28 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -676,16 +771,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
-  <dimension ref="C5:L17"/>
+  <dimension ref="C1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.81640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="27.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" bestFit="1" customWidth="1"/>
@@ -698,269 +793,371 @@
     <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+    <row r="1" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C1" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C13" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C14" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C17" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="16"/>
+      <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C6" s="3" t="s">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="H6" s="6" t="s">
+      <c r="D22" s="2"/>
+      <c r="H22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8" t="s">
+      <c r="J22" s="6"/>
+      <c r="K22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L22" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="4">
+    <row r="23" spans="3:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="18">
         <v>45597</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="F23" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L23" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="4">
+    <row r="24" spans="3:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C24" s="18">
         <v>45658</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="1" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L24" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="3:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="4">
+    <row r="25" spans="3:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="18">
         <v>45689</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="1" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G25" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L25" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="4">
+    <row r="26" spans="3:12" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="18">
         <v>45717</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="1" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L26" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="4">
+    <row r="27" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="18">
         <v>45748</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="1" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G27" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L27" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="H12" s="9" t="s">
+    <row r="28" spans="3:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="F28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L28" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H13" s="9" t="s">
+    <row r="29" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L29" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H14" s="9" t="s">
+    <row r="30" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K30" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L30" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H15" s="9" t="s">
+    <row r="31" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K31" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L31" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H16" s="11" t="s">
+    <row r="32" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L32" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="11:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="K17" s="12" t="s">
+    <row r="33" spans="11:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L33" s="12" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E23:E27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" xr:uid="{19B8B9A6-0D14-4DF7-83D4-6EAC417EFFBF}"/>
-    <hyperlink ref="I8" r:id="rId2" location="google_vignette" xr:uid="{8F2FC74F-48B1-4ABF-B361-65859470B6EB}"/>
-    <hyperlink ref="L7" r:id="rId3" xr:uid="{483B4E20-5184-47A5-AF69-7B44A995F6AA}"/>
-    <hyperlink ref="L8" r:id="rId4" xr:uid="{2A23487F-1CA6-43CE-9665-70A0F48DDB22}"/>
-    <hyperlink ref="L9" r:id="rId5" xr:uid="{FCE87965-9101-48B4-9186-55023E56E702}"/>
-    <hyperlink ref="L10" r:id="rId6" xr:uid="{1760EFF8-3E6F-45E5-90A5-F4842E46222D}"/>
-    <hyperlink ref="L12" r:id="rId7" xr:uid="{AC2D21D1-7427-4C76-B3C5-F815D66A541A}"/>
-    <hyperlink ref="I12" r:id="rId8" xr:uid="{FA68B5D9-9717-45F6-91E7-1A831AC6DDB7}"/>
-    <hyperlink ref="I13" r:id="rId9" xr:uid="{3375D102-B005-4925-A521-0B150653326D}"/>
-    <hyperlink ref="I14" r:id="rId10" xr:uid="{68DED11B-E156-4B73-899E-0DF969096F61}"/>
-    <hyperlink ref="L13" r:id="rId11" xr:uid="{3E9BD190-E87C-4307-B3A8-F1229FCBEE64}"/>
-    <hyperlink ref="L14" r:id="rId12" xr:uid="{05D44AF7-B62F-4EA5-9144-2069BDB53D5C}"/>
-    <hyperlink ref="L15" r:id="rId13" xr:uid="{B8C17712-FAF2-4396-B24B-3265EB00B649}"/>
-    <hyperlink ref="L16" r:id="rId14" xr:uid="{763BD6A2-D97B-4367-B9E8-A9904AD0A905}"/>
-    <hyperlink ref="L17" r:id="rId15" xr:uid="{6E207B70-01EB-46C8-86D5-38C4641ACDAD}"/>
-    <hyperlink ref="I15" r:id="rId16" xr:uid="{7D74F3BB-82EC-431D-9DA0-B70917D299D9}"/>
-    <hyperlink ref="I16" r:id="rId17" xr:uid="{1471BC00-7D49-4777-9171-DFBDA2992B82}"/>
-    <hyperlink ref="I9" r:id="rId18" xr:uid="{27E4409B-91E1-4266-84CF-09E5EF42ED00}"/>
-    <hyperlink ref="L11" r:id="rId19" xr:uid="{B64768DC-3EF7-49B4-BEEA-6087DEB1A1C8}"/>
-    <hyperlink ref="I10" r:id="rId20" xr:uid="{F1B52C8A-8CA7-4E55-AE9C-B19A0A17AE62}"/>
-    <hyperlink ref="I11" r:id="rId21" xr:uid="{0243746E-78E6-4C63-8A6A-935AFF113CA2}"/>
+    <hyperlink ref="I23" r:id="rId1" xr:uid="{19B8B9A6-0D14-4DF7-83D4-6EAC417EFFBF}"/>
+    <hyperlink ref="I24" r:id="rId2" location="google_vignette" xr:uid="{8F2FC74F-48B1-4ABF-B361-65859470B6EB}"/>
+    <hyperlink ref="L23" r:id="rId3" xr:uid="{483B4E20-5184-47A5-AF69-7B44A995F6AA}"/>
+    <hyperlink ref="L24" r:id="rId4" xr:uid="{2A23487F-1CA6-43CE-9665-70A0F48DDB22}"/>
+    <hyperlink ref="L25" r:id="rId5" xr:uid="{FCE87965-9101-48B4-9186-55023E56E702}"/>
+    <hyperlink ref="L26" r:id="rId6" xr:uid="{1760EFF8-3E6F-45E5-90A5-F4842E46222D}"/>
+    <hyperlink ref="L28" r:id="rId7" xr:uid="{AC2D21D1-7427-4C76-B3C5-F815D66A541A}"/>
+    <hyperlink ref="I28" r:id="rId8" xr:uid="{FA68B5D9-9717-45F6-91E7-1A831AC6DDB7}"/>
+    <hyperlink ref="I29" r:id="rId9" xr:uid="{3375D102-B005-4925-A521-0B150653326D}"/>
+    <hyperlink ref="I30" r:id="rId10" xr:uid="{68DED11B-E156-4B73-899E-0DF969096F61}"/>
+    <hyperlink ref="L29" r:id="rId11" xr:uid="{3E9BD190-E87C-4307-B3A8-F1229FCBEE64}"/>
+    <hyperlink ref="L30" r:id="rId12" xr:uid="{05D44AF7-B62F-4EA5-9144-2069BDB53D5C}"/>
+    <hyperlink ref="L31" r:id="rId13" xr:uid="{B8C17712-FAF2-4396-B24B-3265EB00B649}"/>
+    <hyperlink ref="L32" r:id="rId14" xr:uid="{763BD6A2-D97B-4367-B9E8-A9904AD0A905}"/>
+    <hyperlink ref="L33" r:id="rId15" xr:uid="{6E207B70-01EB-46C8-86D5-38C4641ACDAD}"/>
+    <hyperlink ref="I31" r:id="rId16" xr:uid="{7D74F3BB-82EC-431D-9DA0-B70917D299D9}"/>
+    <hyperlink ref="I32" r:id="rId17" xr:uid="{1471BC00-7D49-4777-9171-DFBDA2992B82}"/>
+    <hyperlink ref="I25" r:id="rId18" xr:uid="{27E4409B-91E1-4266-84CF-09E5EF42ED00}"/>
+    <hyperlink ref="L27" r:id="rId19" xr:uid="{B64768DC-3EF7-49B4-BEEA-6087DEB1A1C8}"/>
+    <hyperlink ref="I26" r:id="rId20" xr:uid="{F1B52C8A-8CA7-4E55-AE9C-B19A0A17AE62}"/>
+    <hyperlink ref="I27" r:id="rId21" xr:uid="{0243746E-78E6-4C63-8A6A-935AFF113CA2}"/>
+    <hyperlink ref="G24" r:id="rId22" xr:uid="{86E595F1-5422-4FA4-B0D6-B29C929C708D}"/>
+    <hyperlink ref="G27" r:id="rId23" xr:uid="{FD34B623-D54B-4D83-B1F0-D8B1914457AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464A46EF-EA5B-4BE1-ADA3-6DB7FE65C5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E967D3EF-06DD-4A39-9B88-4F973156E884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
@@ -180,12 +180,6 @@
     <t>https://rahulshettyacademy.com/blog/index.php/2022/01/18/software-testing-interview-questions/</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; Database Testing.                                            &gt; Rest Assured.                                          </t>
-  </si>
-  <si>
-    <t>&gt; ETL Testing.                                            &gt; Performance Testing                                  &gt; Communication Skills 11 skills</t>
-  </si>
-  <si>
     <t>&gt; Jenkins Complete run all frameworks in slave machine with emaillable report.                       &gt; Selenium Complete Framework Development</t>
   </si>
   <si>
@@ -277,6 +271,12 @@
   </si>
   <si>
     <t>10. Selenium 4 features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Database Testing.                                                                                         &gt;  Dockerisation of Selenium Framework Created                                </t>
+  </si>
+  <si>
+    <t>&gt; ETL Testing.                                            &gt; Performance Testing  Run Framework in Jenkins and SlaveMachines                               &gt; Communication Skills 11 skills</t>
   </si>
 </sst>
 </file>
@@ -435,26 +435,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -773,15 +773,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
   <dimension ref="C1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
     <col min="3" max="3" width="71.81640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.7265625" style="1" customWidth="1"/>
@@ -794,101 +794,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C1" s="19" t="s">
-        <v>63</v>
+      <c r="C1" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="19" t="s">
-        <v>69</v>
+      <c r="C8" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C9" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C10" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C13" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C14" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C16" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C17" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="16"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="2"/>
@@ -906,21 +906,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="18">
+    <row r="23" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C23" s="17">
         <v>45597</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>7</v>
@@ -936,18 +936,18 @@
       </c>
     </row>
     <row r="24" spans="3:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>45658</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>9</v>
@@ -962,19 +962,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="18">
+    <row r="25" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C25" s="17">
         <v>45689</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="E25" s="20"/>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>10</v>
@@ -989,19 +989,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="18">
+    <row r="26" spans="3:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C26" s="17">
         <v>45717</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="E26" s="20"/>
       <c r="F26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>11</v>
@@ -1017,18 +1017,18 @@
       </c>
     </row>
     <row r="27" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <v>45748</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>12</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="28" spans="3:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>30</v>

--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E967D3EF-06DD-4A39-9B88-4F973156E884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB43C18-E6BC-467E-940E-500B1911A644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>SUBJECTS</t>
   </si>
@@ -277,6 +277,36 @@
   </si>
   <si>
     <t>&gt; ETL Testing.                                            &gt; Performance Testing  Run Framework in Jenkins and SlaveMachines                               &gt; Communication Skills 11 skills</t>
+  </si>
+  <si>
+    <t>Public Sepient Interview Questions - Bengaluru location</t>
+  </si>
+  <si>
+    <t>1. Explain How you implemented Oops concepts in your project.</t>
+  </si>
+  <si>
+    <t>2. What library have you used for Reading excel sheet data, JSON data, to parse JSON, to read JSON file</t>
+  </si>
+  <si>
+    <t>3. While handling File operation what you will do exception throw or try catch explain</t>
+  </si>
+  <si>
+    <t>4. What is difference between throw and checked exception.</t>
+  </si>
+  <si>
+    <t>5. Write a programm to remove duplicates from ArrayList</t>
+  </si>
+  <si>
+    <t>6. What is difference between throw and throws keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Write git commands </t>
+  </si>
+  <si>
+    <t>9. Explain PageObject Model of framework design</t>
+  </si>
+  <si>
+    <t>8. Have you worked on CI/CD in your project</t>
   </si>
 </sst>
 </file>
@@ -771,16 +801,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
-  <dimension ref="C1:L33"/>
+  <dimension ref="C1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="71.81640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="74" style="13" customWidth="1"/>
     <col min="4" max="4" width="26.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" bestFit="1" customWidth="1"/>
@@ -881,281 +911,334 @@
         <v>77</v>
       </c>
     </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C20" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="15"/>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="C22" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C31" s="15"/>
+      <c r="D31" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="16" t="s">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C32" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="H22" s="5" t="s">
+      <c r="D32" s="2"/>
+      <c r="H32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7" t="s">
+      <c r="J32" s="6"/>
+      <c r="K32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="C23" s="17">
+    <row r="33" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C33" s="17">
         <v>45597</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E33" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F33" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L33" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C24" s="17">
+    <row r="34" spans="3:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C34" s="17">
         <v>45658</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="1" t="s">
+      <c r="E34" s="20"/>
+      <c r="F34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G34" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L34" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="C25" s="17">
+    <row r="35" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C35" s="17">
         <v>45689</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="1" t="s">
+      <c r="E35" s="20"/>
+      <c r="F35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G35" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L35" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C26" s="17">
+    <row r="36" spans="3:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="C36" s="17">
         <v>45717</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="1" t="s">
+      <c r="E36" s="20"/>
+      <c r="F36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G36" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K36" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L36" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="17">
+    <row r="37" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="17">
         <v>45748</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="1" t="s">
+      <c r="E37" s="20"/>
+      <c r="F37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G37" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I37" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K37" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L37" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="F28" s="1" t="s">
+    <row r="38" spans="3:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="F38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I38" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K38" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L38" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H29" s="8" t="s">
+    <row r="39" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H39" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K39" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L39" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H30" s="8" t="s">
+    <row r="40" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H40" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I40" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K40" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L40" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H31" s="8" t="s">
+    <row r="41" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H41" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K41" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L41" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H32" s="10" t="s">
+    <row r="42" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H42" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I42" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L42" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="11:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="K33" s="11" t="s">
+    <row r="43" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L43" s="12" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E33:E37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I23" r:id="rId1" xr:uid="{19B8B9A6-0D14-4DF7-83D4-6EAC417EFFBF}"/>
-    <hyperlink ref="I24" r:id="rId2" location="google_vignette" xr:uid="{8F2FC74F-48B1-4ABF-B361-65859470B6EB}"/>
-    <hyperlink ref="L23" r:id="rId3" xr:uid="{483B4E20-5184-47A5-AF69-7B44A995F6AA}"/>
-    <hyperlink ref="L24" r:id="rId4" xr:uid="{2A23487F-1CA6-43CE-9665-70A0F48DDB22}"/>
-    <hyperlink ref="L25" r:id="rId5" xr:uid="{FCE87965-9101-48B4-9186-55023E56E702}"/>
-    <hyperlink ref="L26" r:id="rId6" xr:uid="{1760EFF8-3E6F-45E5-90A5-F4842E46222D}"/>
-    <hyperlink ref="L28" r:id="rId7" xr:uid="{AC2D21D1-7427-4C76-B3C5-F815D66A541A}"/>
-    <hyperlink ref="I28" r:id="rId8" xr:uid="{FA68B5D9-9717-45F6-91E7-1A831AC6DDB7}"/>
-    <hyperlink ref="I29" r:id="rId9" xr:uid="{3375D102-B005-4925-A521-0B150653326D}"/>
-    <hyperlink ref="I30" r:id="rId10" xr:uid="{68DED11B-E156-4B73-899E-0DF969096F61}"/>
-    <hyperlink ref="L29" r:id="rId11" xr:uid="{3E9BD190-E87C-4307-B3A8-F1229FCBEE64}"/>
-    <hyperlink ref="L30" r:id="rId12" xr:uid="{05D44AF7-B62F-4EA5-9144-2069BDB53D5C}"/>
-    <hyperlink ref="L31" r:id="rId13" xr:uid="{B8C17712-FAF2-4396-B24B-3265EB00B649}"/>
-    <hyperlink ref="L32" r:id="rId14" xr:uid="{763BD6A2-D97B-4367-B9E8-A9904AD0A905}"/>
-    <hyperlink ref="L33" r:id="rId15" xr:uid="{6E207B70-01EB-46C8-86D5-38C4641ACDAD}"/>
-    <hyperlink ref="I31" r:id="rId16" xr:uid="{7D74F3BB-82EC-431D-9DA0-B70917D299D9}"/>
-    <hyperlink ref="I32" r:id="rId17" xr:uid="{1471BC00-7D49-4777-9171-DFBDA2992B82}"/>
-    <hyperlink ref="I25" r:id="rId18" xr:uid="{27E4409B-91E1-4266-84CF-09E5EF42ED00}"/>
-    <hyperlink ref="L27" r:id="rId19" xr:uid="{B64768DC-3EF7-49B4-BEEA-6087DEB1A1C8}"/>
-    <hyperlink ref="I26" r:id="rId20" xr:uid="{F1B52C8A-8CA7-4E55-AE9C-B19A0A17AE62}"/>
-    <hyperlink ref="I27" r:id="rId21" xr:uid="{0243746E-78E6-4C63-8A6A-935AFF113CA2}"/>
-    <hyperlink ref="G24" r:id="rId22" xr:uid="{86E595F1-5422-4FA4-B0D6-B29C929C708D}"/>
-    <hyperlink ref="G27" r:id="rId23" xr:uid="{FD34B623-D54B-4D83-B1F0-D8B1914457AD}"/>
+    <hyperlink ref="I33" r:id="rId1" xr:uid="{19B8B9A6-0D14-4DF7-83D4-6EAC417EFFBF}"/>
+    <hyperlink ref="I34" r:id="rId2" location="google_vignette" xr:uid="{8F2FC74F-48B1-4ABF-B361-65859470B6EB}"/>
+    <hyperlink ref="L33" r:id="rId3" xr:uid="{483B4E20-5184-47A5-AF69-7B44A995F6AA}"/>
+    <hyperlink ref="L34" r:id="rId4" xr:uid="{2A23487F-1CA6-43CE-9665-70A0F48DDB22}"/>
+    <hyperlink ref="L35" r:id="rId5" xr:uid="{FCE87965-9101-48B4-9186-55023E56E702}"/>
+    <hyperlink ref="L36" r:id="rId6" xr:uid="{1760EFF8-3E6F-45E5-90A5-F4842E46222D}"/>
+    <hyperlink ref="L38" r:id="rId7" xr:uid="{AC2D21D1-7427-4C76-B3C5-F815D66A541A}"/>
+    <hyperlink ref="I38" r:id="rId8" xr:uid="{FA68B5D9-9717-45F6-91E7-1A831AC6DDB7}"/>
+    <hyperlink ref="I39" r:id="rId9" xr:uid="{3375D102-B005-4925-A521-0B150653326D}"/>
+    <hyperlink ref="I40" r:id="rId10" xr:uid="{68DED11B-E156-4B73-899E-0DF969096F61}"/>
+    <hyperlink ref="L39" r:id="rId11" xr:uid="{3E9BD190-E87C-4307-B3A8-F1229FCBEE64}"/>
+    <hyperlink ref="L40" r:id="rId12" xr:uid="{05D44AF7-B62F-4EA5-9144-2069BDB53D5C}"/>
+    <hyperlink ref="L41" r:id="rId13" xr:uid="{B8C17712-FAF2-4396-B24B-3265EB00B649}"/>
+    <hyperlink ref="L42" r:id="rId14" xr:uid="{763BD6A2-D97B-4367-B9E8-A9904AD0A905}"/>
+    <hyperlink ref="L43" r:id="rId15" xr:uid="{6E207B70-01EB-46C8-86D5-38C4641ACDAD}"/>
+    <hyperlink ref="I41" r:id="rId16" xr:uid="{7D74F3BB-82EC-431D-9DA0-B70917D299D9}"/>
+    <hyperlink ref="I42" r:id="rId17" xr:uid="{1471BC00-7D49-4777-9171-DFBDA2992B82}"/>
+    <hyperlink ref="I35" r:id="rId18" xr:uid="{27E4409B-91E1-4266-84CF-09E5EF42ED00}"/>
+    <hyperlink ref="L37" r:id="rId19" xr:uid="{B64768DC-3EF7-49B4-BEEA-6087DEB1A1C8}"/>
+    <hyperlink ref="I36" r:id="rId20" xr:uid="{F1B52C8A-8CA7-4E55-AE9C-B19A0A17AE62}"/>
+    <hyperlink ref="I37" r:id="rId21" xr:uid="{0243746E-78E6-4C63-8A6A-935AFF113CA2}"/>
+    <hyperlink ref="G34" r:id="rId22" xr:uid="{86E595F1-5422-4FA4-B0D6-B29C929C708D}"/>
+    <hyperlink ref="G37" r:id="rId23" xr:uid="{FD34B623-D54B-4D83-B1F0-D8B1914457AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId24"/>

--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB43C18-E6BC-467E-940E-500B1911A644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CEC946-CA75-4B1F-9E6A-86BC5D30F2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>SUBJECTS</t>
   </si>
@@ -42,9 +42,6 @@
     <t>MONTHS</t>
   </si>
   <si>
-    <t>&gt; Cucumber with Java Selenium.                                             &gt; Rest Assured with Java.</t>
-  </si>
-  <si>
     <t>&gt; Reading News understanding news.                                                  &gt; Learn Negotiation skills</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
   </si>
   <si>
     <t>https://rahulshettyacademy.com/blog/index.php/2022/01/18/software-testing-interview-questions/</t>
-  </si>
-  <si>
-    <t>&gt; Jenkins Complete run all frameworks in slave machine with emaillable report.                       &gt; Selenium Complete Framework Development</t>
   </si>
   <si>
     <t>Java RegularExpressions</t>
@@ -273,9 +267,6 @@
     <t>10. Selenium 4 features</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; Database Testing.                                                                                         &gt;  Dockerisation of Selenium Framework Created                                </t>
-  </si>
-  <si>
     <t>&gt; ETL Testing.                                            &gt; Performance Testing  Run Framework in Jenkins and SlaveMachines                               &gt; Communication Skills 11 skills</t>
   </si>
   <si>
@@ -307,6 +298,12 @@
   </si>
   <si>
     <t>8. Have you worked on CI/CD in your project</t>
+  </si>
+  <si>
+    <t>&gt; Dockerisation of Selenium Framework Created                     &gt; Selenium Complete Framework Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Database Testing.                    &gt; Jenkins Complete run all frameworks in slave machine with emaillable report.                                                                                                                                     </t>
   </si>
 </sst>
 </file>
@@ -803,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
   <dimension ref="C1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,32 +822,32 @@
   <sheetData>
     <row r="1" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C1" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.35">
@@ -858,57 +855,57 @@
     </row>
     <row r="8" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C8" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C14" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C15" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C16" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
@@ -916,52 +913,52 @@
     </row>
     <row r="20" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C20" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="3:12" ht="29" x14ac:dyDescent="0.35">
       <c r="C22" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C24" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C25" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C26" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C27" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C28" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C29" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
@@ -976,238 +973,232 @@
       </c>
       <c r="D32" s="2"/>
       <c r="H32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C33" s="17">
-        <v>45597</v>
+        <v>45689</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="K33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" ht="72.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="3:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="17">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="17">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" ht="87" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="17">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="12" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="37" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="17">
-        <v>45748</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="E37" s="20"/>
       <c r="F37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K37" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="38" spans="3:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F38" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="K38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="39" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="H39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="K39" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="H40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="K40" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="H41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="K41" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="H42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="K42" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="K43" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CEC946-CA75-4B1F-9E6A-86BC5D30F2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672EFEF2-BE61-4F5F-A060-211E46D311C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>SUBJECTS</t>
   </si>
@@ -304,6 +304,18 @@
   </si>
   <si>
     <t xml:space="preserve">&gt; Database Testing.                    &gt; Jenkins Complete run all frameworks in slave machine with emaillable report.                                                                                                                                     </t>
+  </si>
+  <si>
+    <t>From 18th Feb to Mar-10</t>
+  </si>
+  <si>
+    <t>From Mar-11 to Mar-31</t>
+  </si>
+  <si>
+    <t>From April 1 to 30</t>
+  </si>
+  <si>
+    <t>From May-1 to 30</t>
   </si>
 </sst>
 </file>
@@ -800,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
   <dimension ref="C1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E37"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -987,8 +999,8 @@
       </c>
     </row>
     <row r="33" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="C33" s="17">
-        <v>45689</v>
+      <c r="C33" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>87</v>
@@ -1016,8 +1028,8 @@
       </c>
     </row>
     <row r="34" spans="3:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="17">
-        <v>45717</v>
+      <c r="C34" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>88</v>
@@ -1043,8 +1055,8 @@
       </c>
     </row>
     <row r="35" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="17">
-        <v>45748</v>
+      <c r="C35" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>76</v>
@@ -1070,8 +1082,8 @@
       </c>
     </row>
     <row r="36" spans="3:12" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="17">
-        <v>45748</v>
+      <c r="C36" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>2</v>

--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Java_Programs_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CEC946-CA75-4B1F-9E6A-86BC5D30F2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B302E2E-BD75-4C89-9D2B-9CE6F276ABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Switching" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="95">
   <si>
     <t>SUBJECTS</t>
   </si>
@@ -304,6 +295,24 @@
   </si>
   <si>
     <t xml:space="preserve">&gt; Database Testing.                    &gt; Jenkins Complete run all frameworks in slave machine with emaillable report.                                                                                                                                     </t>
+  </si>
+  <si>
+    <t>Rahul Shetty Selenium Course Interview Questions</t>
+  </si>
+  <si>
+    <t>1. What is the standard protocol selenium uses to communicate with the browser ?    ANS: W3C protocol</t>
+  </si>
+  <si>
+    <t>4. W3rd coloumn cell value is the standard proforcol selenium uses for communicate with the browser ?    ANS: W3C proforcol</t>
+  </si>
+  <si>
+    <t>2. What is WebDriver explain? ANS: It is an interface it provide the methods to handle and do browser based activity methods to implementation clases, chromedriver, edgedriver .. Etc are the implementation clases.</t>
+  </si>
+  <si>
+    <t>3. What is WebDriver explaregular? ANS: Rt is an regularterface it provide the methods to handle and do browser based activity methods to write clases, chromedriver, edgedriver .. Etc are the write clases.</t>
+  </si>
+  <si>
+    <t>5. What is WebDriver explawill? ANS: Wt is an willterface it provide the methods to handle and do browser based activity methods to you clases, chromedriver, edgedriver .. Etc are the you clases.</t>
   </si>
 </sst>
 </file>
@@ -800,174 +809,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
   <dimension ref="C1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E37"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.7109375" style="1"/>
     <col min="3" max="3" width="74" style="13" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.08984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="1"/>
-    <col min="11" max="11" width="39.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="37.453125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="39.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C1" s="18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12" ht="45" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" s="15"/>
       <c r="D31" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" s="16" t="s">
         <v>1</v>
       </c>
@@ -986,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:12" ht="60" x14ac:dyDescent="0.25">
       <c r="C33" s="17">
         <v>45689</v>
       </c>
@@ -1015,7 +1033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="3:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="17">
         <v>45717</v>
       </c>
@@ -1042,7 +1060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="17">
         <v>45748</v>
       </c>
@@ -1069,7 +1087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="3:12" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:12" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="17">
         <v>45748</v>
       </c>
@@ -1096,7 +1114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="20"/>
       <c r="F37" s="1" t="s">
         <v>53</v>
@@ -1117,7 +1135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:12" ht="165" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
         <v>55</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:12" ht="60" x14ac:dyDescent="0.25">
       <c r="H39" s="8" t="s">
         <v>31</v>
       </c>
@@ -1151,7 +1169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:12" ht="60" x14ac:dyDescent="0.25">
       <c r="H40" s="8" t="s">
         <v>33</v>
       </c>
@@ -1165,7 +1183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:12" ht="60" x14ac:dyDescent="0.25">
       <c r="H41" s="8" t="s">
         <v>43</v>
       </c>
@@ -1179,7 +1197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:12" ht="75" x14ac:dyDescent="0.25">
       <c r="H42" s="10" t="s">
         <v>45</v>
       </c>
@@ -1193,7 +1211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:12" ht="45" x14ac:dyDescent="0.25">
       <c r="K43" s="11" t="s">
         <v>39</v>
       </c>

--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Java_Programs_2024\Course_JAVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B302E2E-BD75-4C89-9D2B-9CE6F276ABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E45053B-5C9C-464F-BB14-DF2D0DF2AE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Switching" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
   <si>
     <t>SUBJECTS</t>
   </si>
@@ -216,15 +216,9 @@
     <t>2. Have you worked on Jenkins Implementation in frameworks like Selenium, restAssured</t>
   </si>
   <si>
-    <t>3. Write regular expression for email input</t>
-  </si>
-  <si>
     <t>4. Write code for web-table automation, I want to fetch 2nd row and 3rd coloumn cell value.</t>
   </si>
   <si>
-    <t>5. When you will get stale element Exception</t>
-  </si>
-  <si>
     <t>Capgemini Interview Questions - Chennai location</t>
   </si>
   <si>
@@ -303,16 +297,13 @@
     <t>1. What is the standard protocol selenium uses to communicate with the browser ?    ANS: W3C protocol</t>
   </si>
   <si>
-    <t>4. W3rd coloumn cell value is the standard proforcol selenium uses for communicate with the browser ?    ANS: W3C proforcol</t>
-  </si>
-  <si>
     <t>2. What is WebDriver explain? ANS: It is an interface it provide the methods to handle and do browser based activity methods to implementation clases, chromedriver, edgedriver .. Etc are the implementation clases.</t>
   </si>
   <si>
-    <t>3. What is WebDriver explaregular? ANS: Rt is an regularterface it provide the methods to handle and do browser based activity methods to write clases, chromedriver, edgedriver .. Etc are the write clases.</t>
-  </si>
-  <si>
-    <t>5. What is WebDriver explawill? ANS: Wt is an willterface it provide the methods to handle and do browser based activity methods to you clases, chromedriver, edgedriver .. Etc are the you clases.</t>
+    <t>3. Write regular expression for email input : ^[a-zA-Z0-9._%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. When you will get stale element Exception?: Whenever the element is not attached to DOM and your trying to do action on such element or when the element loads dynamically post some actions on the webpage if you try to do your activity before prerequisite dynamic action then staleElement exception occurse. </t>
   </si>
 </sst>
 </file>
@@ -809,183 +800,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
   <dimension ref="C1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="1"/>
-    <col min="3" max="3" width="74" style="13" customWidth="1"/>
-    <col min="4" max="4" width="57.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="85.453125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="40.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1"/>
-    <col min="11" max="11" width="39.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="37.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="1"/>
+    <col min="7" max="7" width="37.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="39.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="37.453125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C1" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4" ht="60" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" ht="58" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+    <row r="6" spans="3:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C9" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C12" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C14" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C15" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
+    <row r="16" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
+    <row r="17" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C17" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C20" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="C22" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
+    <row r="23" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="4" t="s">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="4" t="s">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C27" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="4" t="s">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C28" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C31" s="15"/>
       <c r="D31" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C32" s="16" t="s">
         <v>1</v>
       </c>
@@ -1004,12 +995,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C33" s="17">
         <v>45689</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>3</v>
@@ -1033,12 +1024,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="3:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="17">
         <v>45717</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="1" t="s">
@@ -1060,12 +1051,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="17">
         <v>45748</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="1" t="s">
@@ -1087,7 +1078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="3:12" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="17">
         <v>45748</v>
       </c>
@@ -1114,7 +1105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E37" s="20"/>
       <c r="F37" s="1" t="s">
         <v>53</v>
@@ -1135,7 +1126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F38" s="1" t="s">
         <v>55</v>
       </c>
@@ -1155,7 +1146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="H39" s="8" t="s">
         <v>31</v>
       </c>
@@ -1169,7 +1160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="3:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="H40" s="8" t="s">
         <v>33</v>
       </c>
@@ -1183,7 +1174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="3:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="H41" s="8" t="s">
         <v>43</v>
       </c>
@@ -1197,7 +1188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="3:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="H42" s="10" t="s">
         <v>45</v>
       </c>
@@ -1211,7 +1202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="K43" s="11" t="s">
         <v>39</v>
       </c>

--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E45053B-5C9C-464F-BB14-DF2D0DF2AE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E98F8C8-086A-4B6E-9F1C-690D73E3C07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>SUBJECTS</t>
   </si>
@@ -130,30 +130,6 @@
   </si>
   <si>
     <t>https://rahulshettyacademy.com/blog/index.php/2022/01/06/cucumber-nterview-questions/</t>
-  </si>
-  <si>
-    <t>Sr. SDET Java Part-1</t>
-  </si>
-  <si>
-    <t>Sr. SDET Java Part-2</t>
-  </si>
-  <si>
-    <t>Sr. SDET Java Part-3</t>
-  </si>
-  <si>
-    <t>Sr. SDET Java Part-4</t>
-  </si>
-  <si>
-    <t>Sr. SDET Java Part-5</t>
-  </si>
-  <si>
-    <t>https://rahulshettyacademy.com/blog/index.php/2021/10/23/sdet-interview-questions-part-2/</t>
-  </si>
-  <si>
-    <t>https://rahulshettyacademy.com/blog/index.php/2021/10/23/sdet-interview-questions-part-4/</t>
-  </si>
-  <si>
-    <t>https://rahulshettyacademy.com/blog/index.php/2021/10/23/sdet-interview-questions-part-5/</t>
   </si>
   <si>
     <t>Manual Testing</t>
@@ -304,6 +280,36 @@
   </si>
   <si>
     <t xml:space="preserve">5. When you will get stale element Exception?: Whenever the element is not attached to DOM and your trying to do action on such element or when the element loads dynamically post some actions on the webpage if you try to do your activity before prerequisite dynamic action then staleElement exception occurse. </t>
+  </si>
+  <si>
+    <t>Cognizant Interview Questions - Bengaluru location</t>
+  </si>
+  <si>
+    <t>2. What is method overloading and overriding.</t>
+  </si>
+  <si>
+    <t>3. Can you locate elements using two locatos at a time: /div[@id='example' and @class='container']</t>
+  </si>
+  <si>
+    <t>4. what are the challenges you have faced in your framework UI and API</t>
+  </si>
+  <si>
+    <t>5. How do a DevOps integrate your framework to jenkins</t>
+  </si>
+  <si>
+    <t>6. Give me example of a defect which is high severity and low priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. what are the difference between == and .equals </t>
+  </si>
+  <si>
+    <t>9. I have an xpath which is locating 21 element how do we locate 21st element - //ul/li[position()=21] or (//div[@class='example'])[21]</t>
+  </si>
+  <si>
+    <t>9. Can you explain system.out.println();</t>
+  </si>
+  <si>
+    <t>9. If you issue maven command what it will do will it run POM or test case.</t>
   </si>
 </sst>
 </file>
@@ -798,17 +804,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
-  <dimension ref="C1:L43"/>
+  <dimension ref="C1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="85.453125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="40.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.26953125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.7265625" style="1" customWidth="1"/>
@@ -822,41 +828,41 @@
   <sheetData>
     <row r="1" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C1" s="18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="3:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="3:4" ht="58" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="58" x14ac:dyDescent="0.35">
       <c r="C6" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.35">
@@ -864,383 +870,412 @@
     </row>
     <row r="8" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C8" s="18" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C10" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C13" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C14" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C20" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C22" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C16" s="4" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C24" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C17" s="4" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C25" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="4" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C26" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="18" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C27" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C28" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="C22" s="4" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C31" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C32" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C37" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C38" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C39" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="C40" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C41" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C42" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C46" s="15"/>
+      <c r="D46" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C47" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="H47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C48" s="17">
+        <v>45689</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="4" t="s">
+      <c r="E48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="17">
+        <v>45717</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="15"/>
-      <c r="D31" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="H32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="C33" s="17">
-        <v>45689</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="17">
-        <v>45717</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="1" t="s">
+      <c r="E49" s="20"/>
+      <c r="F49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="17">
+        <v>45748</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="17">
+        <v>45748</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E52" s="20"/>
+      <c r="F52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="F53" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G53" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="17">
-        <v>45748</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="17">
-        <v>45748</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E37" s="20"/>
-      <c r="F37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="F38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="8" t="s">
+      <c r="H53" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I53" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K53" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L53" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H39" s="8" t="s">
+    <row r="54" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H54" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K39" s="11" t="s">
+    </row>
+    <row r="55" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H55" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H56" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L39" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H40" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K40" s="11" t="s">
+      <c r="I56" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H41" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" s="11" t="s">
+    </row>
+    <row r="57" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="H57" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L41" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K42" s="11" t="s">
+      <c r="I57" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="K43" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E48:E52"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I33" r:id="rId1" xr:uid="{19B8B9A6-0D14-4DF7-83D4-6EAC417EFFBF}"/>
-    <hyperlink ref="I34" r:id="rId2" location="google_vignette" xr:uid="{8F2FC74F-48B1-4ABF-B361-65859470B6EB}"/>
-    <hyperlink ref="L33" r:id="rId3" xr:uid="{483B4E20-5184-47A5-AF69-7B44A995F6AA}"/>
-    <hyperlink ref="L34" r:id="rId4" xr:uid="{2A23487F-1CA6-43CE-9665-70A0F48DDB22}"/>
-    <hyperlink ref="L35" r:id="rId5" xr:uid="{FCE87965-9101-48B4-9186-55023E56E702}"/>
-    <hyperlink ref="L36" r:id="rId6" xr:uid="{1760EFF8-3E6F-45E5-90A5-F4842E46222D}"/>
-    <hyperlink ref="L38" r:id="rId7" xr:uid="{AC2D21D1-7427-4C76-B3C5-F815D66A541A}"/>
-    <hyperlink ref="I38" r:id="rId8" xr:uid="{FA68B5D9-9717-45F6-91E7-1A831AC6DDB7}"/>
-    <hyperlink ref="I39" r:id="rId9" xr:uid="{3375D102-B005-4925-A521-0B150653326D}"/>
-    <hyperlink ref="I40" r:id="rId10" xr:uid="{68DED11B-E156-4B73-899E-0DF969096F61}"/>
-    <hyperlink ref="L39" r:id="rId11" xr:uid="{3E9BD190-E87C-4307-B3A8-F1229FCBEE64}"/>
-    <hyperlink ref="L40" r:id="rId12" xr:uid="{05D44AF7-B62F-4EA5-9144-2069BDB53D5C}"/>
-    <hyperlink ref="L41" r:id="rId13" xr:uid="{B8C17712-FAF2-4396-B24B-3265EB00B649}"/>
-    <hyperlink ref="L42" r:id="rId14" xr:uid="{763BD6A2-D97B-4367-B9E8-A9904AD0A905}"/>
-    <hyperlink ref="L43" r:id="rId15" xr:uid="{6E207B70-01EB-46C8-86D5-38C4641ACDAD}"/>
-    <hyperlink ref="I41" r:id="rId16" xr:uid="{7D74F3BB-82EC-431D-9DA0-B70917D299D9}"/>
-    <hyperlink ref="I42" r:id="rId17" xr:uid="{1471BC00-7D49-4777-9171-DFBDA2992B82}"/>
-    <hyperlink ref="I35" r:id="rId18" xr:uid="{27E4409B-91E1-4266-84CF-09E5EF42ED00}"/>
-    <hyperlink ref="L37" r:id="rId19" xr:uid="{B64768DC-3EF7-49B4-BEEA-6087DEB1A1C8}"/>
-    <hyperlink ref="I36" r:id="rId20" xr:uid="{F1B52C8A-8CA7-4E55-AE9C-B19A0A17AE62}"/>
-    <hyperlink ref="I37" r:id="rId21" xr:uid="{0243746E-78E6-4C63-8A6A-935AFF113CA2}"/>
-    <hyperlink ref="G34" r:id="rId22" xr:uid="{86E595F1-5422-4FA4-B0D6-B29C929C708D}"/>
-    <hyperlink ref="G37" r:id="rId23" xr:uid="{FD34B623-D54B-4D83-B1F0-D8B1914457AD}"/>
+    <hyperlink ref="I48" r:id="rId1" xr:uid="{19B8B9A6-0D14-4DF7-83D4-6EAC417EFFBF}"/>
+    <hyperlink ref="I49" r:id="rId2" location="google_vignette" xr:uid="{8F2FC74F-48B1-4ABF-B361-65859470B6EB}"/>
+    <hyperlink ref="L48" r:id="rId3" xr:uid="{483B4E20-5184-47A5-AF69-7B44A995F6AA}"/>
+    <hyperlink ref="L49" r:id="rId4" xr:uid="{2A23487F-1CA6-43CE-9665-70A0F48DDB22}"/>
+    <hyperlink ref="L50" r:id="rId5" xr:uid="{FCE87965-9101-48B4-9186-55023E56E702}"/>
+    <hyperlink ref="L51" r:id="rId6" xr:uid="{1760EFF8-3E6F-45E5-90A5-F4842E46222D}"/>
+    <hyperlink ref="L53" r:id="rId7" xr:uid="{AC2D21D1-7427-4C76-B3C5-F815D66A541A}"/>
+    <hyperlink ref="I53" r:id="rId8" xr:uid="{FA68B5D9-9717-45F6-91E7-1A831AC6DDB7}"/>
+    <hyperlink ref="I54" r:id="rId9" xr:uid="{3375D102-B005-4925-A521-0B150653326D}"/>
+    <hyperlink ref="I55" r:id="rId10" xr:uid="{68DED11B-E156-4B73-899E-0DF969096F61}"/>
+    <hyperlink ref="I56" r:id="rId11" xr:uid="{7D74F3BB-82EC-431D-9DA0-B70917D299D9}"/>
+    <hyperlink ref="I57" r:id="rId12" xr:uid="{1471BC00-7D49-4777-9171-DFBDA2992B82}"/>
+    <hyperlink ref="I50" r:id="rId13" xr:uid="{27E4409B-91E1-4266-84CF-09E5EF42ED00}"/>
+    <hyperlink ref="L52" r:id="rId14" xr:uid="{B64768DC-3EF7-49B4-BEEA-6087DEB1A1C8}"/>
+    <hyperlink ref="I51" r:id="rId15" xr:uid="{F1B52C8A-8CA7-4E55-AE9C-B19A0A17AE62}"/>
+    <hyperlink ref="I52" r:id="rId16" xr:uid="{0243746E-78E6-4C63-8A6A-935AFF113CA2}"/>
+    <hyperlink ref="G49" r:id="rId17" xr:uid="{86E595F1-5422-4FA4-B0D6-B29C929C708D}"/>
+    <hyperlink ref="G52" r:id="rId18" xr:uid="{FD34B623-D54B-4D83-B1F0-D8B1914457AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E98F8C8-086A-4B6E-9F1C-690D73E3C07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9641062-309A-4902-B5DD-42D8D94351DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>SUBJECTS</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>9. If you issue maven command what it will do will it run POM or test case.</t>
+  </si>
+  <si>
+    <t>1. Explain How you read data from JSON and Excel in your framework implemented Oops concepts in your project.</t>
+  </si>
+  <si>
+    <t>3. Open Amazon website, identify mobiles brands filter the results with Specific user input brand</t>
   </si>
 </sst>
 </file>
@@ -427,15 +433,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -804,18 +804,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
-  <dimension ref="C1:L57"/>
+  <dimension ref="C1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="63.26953125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.36328125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="37.36328125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.7265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.1796875" style="1" customWidth="1"/>
@@ -826,454 +826,500 @@
     <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="3:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="3:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="3:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="3:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="3:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="18" t="s">
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C9" s="4" t="s">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C10" s="4" t="s">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C11" s="4" t="s">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="4" t="s">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C13" s="4" t="s">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C14" s="4" t="s">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C15" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C15" s="4" t="s">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C16" s="4" t="s">
+    <row r="17" spans="3:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C17" s="4" t="s">
+    <row r="18" spans="3:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C18" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="4" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="18" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C21" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C21" s="4" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="C22" s="4" t="s">
+    <row r="23" spans="3:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C23" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="4" t="s">
+    <row r="24" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C24" s="4" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C25" s="4" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C26" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C26" s="4" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C27" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C27" s="4" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C28" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C28" s="4" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C29" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C29" s="4" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C30" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C31" s="18" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C32" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C32" s="4" t="s">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C33" s="4" t="s">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C34" s="4" t="s">
+    <row r="35" spans="3:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="C35" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C35" s="4" t="s">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C36" s="4" t="s">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C37" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C37" s="4" t="s">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C38" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C38" s="4" t="s">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C39" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C39" s="4" t="s">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C40" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="3:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="C40" s="4" t="s">
+    <row r="41" spans="3:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="C41" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C41" s="4" t="s">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C42" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C42" s="4" t="s">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C43" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C46" s="15"/>
-      <c r="D46" s="3" t="s">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C47" s="13"/>
+      <c r="D47" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C47" s="16" t="s">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C48" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="H47" s="5" t="s">
+      <c r="D48" s="13"/>
+      <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="7" t="s">
+      <c r="J48" s="4"/>
+      <c r="K48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L48" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="3:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C48" s="17">
+    <row r="49" spans="3:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C49" s="15">
         <v>45689</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F49" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H49" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L48" s="12" t="s">
+      <c r="L49" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="3:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="17">
+    <row r="50" spans="3:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="15">
         <v>45717</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="1" t="s">
+      <c r="E50" s="18"/>
+      <c r="F50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G50" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K50" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="12" t="s">
+      <c r="L50" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="17">
+    <row r="51" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="15">
         <v>45748</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="1" t="s">
+      <c r="E51" s="18"/>
+      <c r="F51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G51" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I51" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K51" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="L51" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="3:12" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="17">
+    <row r="52" spans="3:12" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="15">
         <v>45748</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="1" t="s">
+      <c r="E52" s="18"/>
+      <c r="F52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G52" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I52" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K52" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L51" s="12" t="s">
+      <c r="L52" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E52" s="20"/>
-      <c r="F52" s="1" t="s">
+    <row r="53" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E53" s="18"/>
+      <c r="F53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G53" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K53" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="12" t="s">
+      <c r="L53" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="3:12" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="F53" s="1" t="s">
+    <row r="54" spans="3:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C54" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G54" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H54" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I54" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K54" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="12" t="s">
+      <c r="L54" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H54" s="8" t="s">
+    <row r="55" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="I55" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H55" s="8" t="s">
+    <row r="56" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I55" s="9" t="s">
+      <c r="I56" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H56" s="8" t="s">
+    <row r="57" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="I57" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="3:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="H57" s="10" t="s">
+    <row r="58" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C58" s="1"/>
+      <c r="H58" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="I58" s="7" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C68" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E49:E53"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I48" r:id="rId1" xr:uid="{19B8B9A6-0D14-4DF7-83D4-6EAC417EFFBF}"/>
-    <hyperlink ref="I49" r:id="rId2" location="google_vignette" xr:uid="{8F2FC74F-48B1-4ABF-B361-65859470B6EB}"/>
-    <hyperlink ref="L48" r:id="rId3" xr:uid="{483B4E20-5184-47A5-AF69-7B44A995F6AA}"/>
-    <hyperlink ref="L49" r:id="rId4" xr:uid="{2A23487F-1CA6-43CE-9665-70A0F48DDB22}"/>
-    <hyperlink ref="L50" r:id="rId5" xr:uid="{FCE87965-9101-48B4-9186-55023E56E702}"/>
-    <hyperlink ref="L51" r:id="rId6" xr:uid="{1760EFF8-3E6F-45E5-90A5-F4842E46222D}"/>
-    <hyperlink ref="L53" r:id="rId7" xr:uid="{AC2D21D1-7427-4C76-B3C5-F815D66A541A}"/>
-    <hyperlink ref="I53" r:id="rId8" xr:uid="{FA68B5D9-9717-45F6-91E7-1A831AC6DDB7}"/>
-    <hyperlink ref="I54" r:id="rId9" xr:uid="{3375D102-B005-4925-A521-0B150653326D}"/>
-    <hyperlink ref="I55" r:id="rId10" xr:uid="{68DED11B-E156-4B73-899E-0DF969096F61}"/>
-    <hyperlink ref="I56" r:id="rId11" xr:uid="{7D74F3BB-82EC-431D-9DA0-B70917D299D9}"/>
-    <hyperlink ref="I57" r:id="rId12" xr:uid="{1471BC00-7D49-4777-9171-DFBDA2992B82}"/>
-    <hyperlink ref="I50" r:id="rId13" xr:uid="{27E4409B-91E1-4266-84CF-09E5EF42ED00}"/>
-    <hyperlink ref="L52" r:id="rId14" xr:uid="{B64768DC-3EF7-49B4-BEEA-6087DEB1A1C8}"/>
-    <hyperlink ref="I51" r:id="rId15" xr:uid="{F1B52C8A-8CA7-4E55-AE9C-B19A0A17AE62}"/>
-    <hyperlink ref="I52" r:id="rId16" xr:uid="{0243746E-78E6-4C63-8A6A-935AFF113CA2}"/>
-    <hyperlink ref="G49" r:id="rId17" xr:uid="{86E595F1-5422-4FA4-B0D6-B29C929C708D}"/>
-    <hyperlink ref="G52" r:id="rId18" xr:uid="{FD34B623-D54B-4D83-B1F0-D8B1914457AD}"/>
+    <hyperlink ref="I49" r:id="rId1" xr:uid="{19B8B9A6-0D14-4DF7-83D4-6EAC417EFFBF}"/>
+    <hyperlink ref="I50" r:id="rId2" location="google_vignette" xr:uid="{8F2FC74F-48B1-4ABF-B361-65859470B6EB}"/>
+    <hyperlink ref="L49" r:id="rId3" xr:uid="{483B4E20-5184-47A5-AF69-7B44A995F6AA}"/>
+    <hyperlink ref="L50" r:id="rId4" xr:uid="{2A23487F-1CA6-43CE-9665-70A0F48DDB22}"/>
+    <hyperlink ref="L51" r:id="rId5" xr:uid="{FCE87965-9101-48B4-9186-55023E56E702}"/>
+    <hyperlink ref="L52" r:id="rId6" xr:uid="{1760EFF8-3E6F-45E5-90A5-F4842E46222D}"/>
+    <hyperlink ref="L54" r:id="rId7" xr:uid="{AC2D21D1-7427-4C76-B3C5-F815D66A541A}"/>
+    <hyperlink ref="I54" r:id="rId8" xr:uid="{FA68B5D9-9717-45F6-91E7-1A831AC6DDB7}"/>
+    <hyperlink ref="I55" r:id="rId9" xr:uid="{3375D102-B005-4925-A521-0B150653326D}"/>
+    <hyperlink ref="I56" r:id="rId10" xr:uid="{68DED11B-E156-4B73-899E-0DF969096F61}"/>
+    <hyperlink ref="I57" r:id="rId11" xr:uid="{7D74F3BB-82EC-431D-9DA0-B70917D299D9}"/>
+    <hyperlink ref="I58" r:id="rId12" xr:uid="{1471BC00-7D49-4777-9171-DFBDA2992B82}"/>
+    <hyperlink ref="I51" r:id="rId13" xr:uid="{27E4409B-91E1-4266-84CF-09E5EF42ED00}"/>
+    <hyperlink ref="L53" r:id="rId14" xr:uid="{B64768DC-3EF7-49B4-BEEA-6087DEB1A1C8}"/>
+    <hyperlink ref="I52" r:id="rId15" xr:uid="{F1B52C8A-8CA7-4E55-AE9C-B19A0A17AE62}"/>
+    <hyperlink ref="I53" r:id="rId16" xr:uid="{0243746E-78E6-4C63-8A6A-935AFF113CA2}"/>
+    <hyperlink ref="G50" r:id="rId17" xr:uid="{86E595F1-5422-4FA4-B0D6-B29C929C708D}"/>
+    <hyperlink ref="G53" r:id="rId18" xr:uid="{FD34B623-D54B-4D83-B1F0-D8B1914457AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>

--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9641062-309A-4902-B5DD-42D8D94351DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2D40A-EA5F-4794-BD4C-39A32136C59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>SUBJECTS</t>
   </si>
   <si>
     <t>MONTHS</t>
-  </si>
-  <si>
-    <t>&gt; Reading News understanding news.                                                  &gt; Learn Negotiation skills</t>
   </si>
   <si>
     <t>&gt; Coding</t>
@@ -228,9 +225,6 @@
     <t>10. Selenium 4 features</t>
   </si>
   <si>
-    <t>&gt; ETL Testing.                                            &gt; Performance Testing  Run Framework in Jenkins and SlaveMachines                               &gt; Communication Skills 11 skills</t>
-  </si>
-  <si>
     <t>Public Sepient Interview Questions - Bengaluru location</t>
   </si>
   <si>
@@ -261,12 +255,6 @@
     <t>8. Have you worked on CI/CD in your project</t>
   </si>
   <si>
-    <t>&gt; Dockerisation of Selenium Framework Created                     &gt; Selenium Complete Framework Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; Database Testing.                    &gt; Jenkins Complete run all frameworks in slave machine with emaillable report.                                                                                                                                     </t>
-  </si>
-  <si>
     <t>Rahul Shetty Selenium Course Interview Questions</t>
   </si>
   <si>
@@ -288,9 +276,6 @@
     <t>2. What is method overloading and overriding.</t>
   </si>
   <si>
-    <t>3. Can you locate elements using two locatos at a time: /div[@id='example' and @class='container']</t>
-  </si>
-  <si>
     <t>4. what are the challenges you have faced in your framework UI and API</t>
   </si>
   <si>
@@ -316,6 +301,34 @@
   </si>
   <si>
     <t>3. Open Amazon website, identify mobiles brands filter the results with Specific user input brand</t>
+  </si>
+  <si>
+    <t>&gt; Salesforce Admin.</t>
+  </si>
+  <si>
+    <t>&gt; Dockerisation of Selenium Framework Created.                                                                &gt; Selenium Complete Framework Development.</t>
+  </si>
+  <si>
+    <t>3. Can you locate elements using two locatos at a time: //div[@id='example' and @class='container']</t>
+  </si>
+  <si>
+    <t>HCL Interview Questions - Bengaluru location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. What will be the output of the following code: try {	
+FileInputStream fis = new FileInputStream(“test.txt”); 
+} catch(Exception e) { 
+e.printStactTrace(); 
+} 
+catch(FileNotFoundException e) { 
+e.printStactTrace(); 
+} </t>
+  </si>
+  <si>
+    <t>2. What is scenarioContext in Cucumber BDD. Explain</t>
+  </si>
+  <si>
+    <t>3. How you switch to child window and again back to parent window with iterator explain</t>
   </si>
 </sst>
 </file>
@@ -804,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
-  <dimension ref="C1:L68"/>
+  <dimension ref="C1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,41 +841,41 @@
   <sheetData>
     <row r="1" spans="3:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C1" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="3:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="3:4" ht="87" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.35">
@@ -873,57 +886,57 @@
     </row>
     <row r="9" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C9" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.35">
@@ -931,52 +944,52 @@
     </row>
     <row r="21" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C21" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C26" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C27" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.35">
@@ -984,62 +997,62 @@
     </row>
     <row r="32" spans="3:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C32" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C34" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="3:12" ht="29" x14ac:dyDescent="0.35">
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C36" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C37" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C39" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C40" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="3:12" ht="29" x14ac:dyDescent="0.35">
       <c r="C41" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C42" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C43" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.35">
@@ -1057,244 +1070,250 @@
       </c>
       <c r="D48" s="13"/>
       <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C49" s="15">
+        <v>45772</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C49" s="15">
-        <v>45689</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="9" t="s">
+      <c r="L49" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="50" spans="3:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C50" s="15">
-        <v>45717</v>
+        <v>45802</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G50" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="H50" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K50" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L50" s="10" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="51" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="15">
-        <v>45748</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="18"/>
       <c r="F51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="H51" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="3:12" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="15">
-        <v>45748</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="18"/>
       <c r="F52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="H52" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="53" spans="3:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E53" s="18"/>
       <c r="F53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="H53" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K53" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="54" spans="3:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C54" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G54" s="11" t="s">
-        <v>48</v>
-      </c>
       <c r="H54" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I54" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="K54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="55" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C55" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H55" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="56" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="57" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C57" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H57" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="58" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C58" s="1"/>
       <c r="H58" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I58" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C60" s="1"/>
+    </row>
+    <row r="59" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C59" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="C60" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C62" s="1"/>
+      <c r="C61" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="C62" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C68" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D70" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1320,8 +1339,9 @@
     <hyperlink ref="I53" r:id="rId16" xr:uid="{0243746E-78E6-4C63-8A6A-935AFF113CA2}"/>
     <hyperlink ref="G50" r:id="rId17" xr:uid="{86E595F1-5422-4FA4-B0D6-B29C929C708D}"/>
     <hyperlink ref="G53" r:id="rId18" xr:uid="{FD34B623-D54B-4D83-B1F0-D8B1914457AD}"/>
+    <hyperlink ref="G52" r:id="rId19" xr:uid="{FAA621D6-7DAA-4A21-954A-4C11FB855E2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Course_JAVA/Switching.xlsx
+++ b/Course_JAVA/Switching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBD5\Desktop\Kiran\2025_Preparation\Java_Programms_2024\Course_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2D40A-EA5F-4794-BD4C-39A32136C59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132EBC39-BAA3-4459-9968-75D595275141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC86AE55-8C37-4AF0-8211-798EC76903A2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>SUBJECTS</t>
   </si>
@@ -329,6 +329,15 @@
   </si>
   <si>
     <t>3. How you switch to child window and again back to parent window with iterator explain</t>
+  </si>
+  <si>
+    <t>4. Can Main method be overloding and overriding ?</t>
+  </si>
+  <si>
+    <t>5. What is difference between dryRun and strict key word in Cucumber BDD</t>
+  </si>
+  <si>
+    <t>6. Why Monochrome is used in Cucumber BDD?</t>
   </si>
 </sst>
 </file>
@@ -819,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45323040-EFC5-4F86-BB27-0E93C4A8D5B8}">
   <dimension ref="C1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="C51" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1292,27 +1301,36 @@
       </c>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C63" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C64" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C65" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
     </row>
   </sheetData>
